--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/WEBLAB/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/WEBLAB/2.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\WEBLAB\TESTCASE\20230417_TESTCASE_WEBLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\WEBLAB\TESTCASE\20230419_TESTCASE_WEBLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3582700-F4B9-44FD-8F13-B5BA5623F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF02FF-7D0F-4279-9127-F67F9F555F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -1907,24 +1907,6 @@
     <t>2.16.840.1.113883.2.9.2.690357.4.4.fc656911d121c9c750cf30129f663a81a2103396f84c429d52fa1961e3008245.08a39a9ec2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-03-20T15:40:57.050Z</t>
-  </si>
-  <si>
-    <t>20a1ade8487a73d6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.690357.4.4.3091b342bf99ebd3e96663abf9e977883abbe385d69b664037053e4e9186a753.bbefb811e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-20T15:49:48.874Z</t>
-  </si>
-  <si>
-    <t>3912fda616eea362</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.690357.4.4.42ed0c9245e2fdcc7af80597db81153d77bb58f6e454f23a4a84809e18a81787.5daaed5d27^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero purpose_of_use)  l'utente dovrà rigenerare il referto e rifirmare</t>
   </si>
   <si>
@@ -1953,6 +1935,24 @@
   </si>
   <si>
     <t>2023-03-20T14:06:57.449Z</t>
+  </si>
+  <si>
+    <t>4d075f6860b3426e</t>
+  </si>
+  <si>
+    <t>2023-04-19T15:14:37.653Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.690357.4.4.42ed0c9245e2fdcc7af80597db81153d77bb58f6e454f23a4a84809e18a81787.abd4ade8a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>51e7ea32c1ae7041</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.690357.4.4.3091b342bf99ebd3e96663abf9e977883abbe385d69b664037053e4e9186a753.d104da1a2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-19T15:18:26.100Z</t>
   </si>
 </sst>
 </file>
@@ -3956,10 +3956,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,13 +4280,13 @@
         <v>45005</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>83</v>
@@ -4323,16 +4323,16 @@
         <v>32</v>
       </c>
       <c r="F12" s="17">
-        <v>45005</v>
+        <v>45035</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>83</v>
@@ -4369,16 +4369,16 @@
         <v>34</v>
       </c>
       <c r="F13" s="17">
-        <v>45005</v>
+        <v>45035</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>83</v>
@@ -5150,7 +5150,7 @@
         <v>309</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L35" s="19" t="s">
         <v>309</v>
@@ -5159,13 +5159,13 @@
         <v>83</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q35" s="19" t="s">
         <v>307</v>
@@ -5438,7 +5438,7 @@
         <v>309</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>309</v>
@@ -5447,13 +5447,13 @@
         <v>83</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>83</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q43" s="19" t="s">
         <v>307</v>
@@ -5739,7 +5739,7 @@
         <v>83</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q51" s="19" t="s">
         <v>307</v>
@@ -6406,7 +6406,7 @@
         <v>309</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
@@ -10796,7 +10796,7 @@
         <v>309</v>
       </c>
       <c r="K198" s="19" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L198" s="19"/>
       <c r="M198" s="19"/>
@@ -26591,14 +26591,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26833,27 +26831,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26878,9 +26869,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/WEBLAB/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/WEBLAB/2.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\WEBLAB\TESTCASE\20230419_TESTCASE_WEBLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\WEBLAB\TESTCASE\20230427_TESTCASE_WEBLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF02FF-7D0F-4279-9127-F67F9F555F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D49B8C4-A7F6-49B6-9560-AE02740A39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="38640" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -1919,9 +1919,6 @@
     <t>Il campo action_id non è corretto</t>
   </si>
   <si>
-    <t>vengono salvati i log delle validazioni sul database, poi l'utente può andare in quella tabella e consultare eventuali errori e da lì aprire il prelievo, eventualmente correggere, rigenerare il referto e rifirmare</t>
-  </si>
-  <si>
     <t>il campo oggetto del test (BATTERY/code) è sempre valorizzato</t>
   </si>
   <si>
@@ -1953,6 +1950,15 @@
   </si>
   <si>
     <t>2023-04-19T15:18:26.100Z</t>
+  </si>
+  <si>
+    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. 
+Eventuali re-invii di validazione vengono concordati/definiti con le singole Aziende. 
+Viene messo a disposizione dell'Azienda una modalità di verifica dei documenti che hanno avuto errori di validazione 
+da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.
+Gli utenti abilitati (ad esempio le figure di Back-office concordate con l'Azienda) 
+possono accedere ai dati e consultare eventuali errori andando ad individuare i referti da correggere. 
+Dopo la correzioni, il referto sarà ri-generato ed il Medico lo potrà rifirmare.</t>
   </si>
 </sst>
 </file>
@@ -3956,10 +3962,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,13 +4286,13 @@
         <v>45005</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H11" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>461</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>462</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>83</v>
@@ -4326,13 +4332,13 @@
         <v>45035</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H12" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>468</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>83</v>
@@ -4372,13 +4378,13 @@
         <v>45035</v>
       </c>
       <c r="G13" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>83</v>
@@ -5702,7 +5708,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>44</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>83</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q51" s="19" t="s">
         <v>307</v>
@@ -6406,7 +6412,7 @@
         <v>309</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
@@ -10796,7 +10802,7 @@
         <v>309</v>
       </c>
       <c r="K198" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L198" s="19"/>
       <c r="M198" s="19"/>
@@ -26591,12 +26597,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26831,20 +26839,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26869,18 +26884,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
